--- a/data/trans_bre/P17_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P17_R-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.855933586395123</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21.70399987783205</v>
+        <v>21.70399987783206</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.243233337657353</v>
@@ -649,7 +649,7 @@
         <v>0.06575130128503105</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4321968904670312</v>
+        <v>0.4321968904670315</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.277858496207156</v>
+        <v>7.281001547753761</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.76978807895145</v>
+        <v>5.92433430932122</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6332333217204336</v>
+        <v>-1.266796857364793</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11.96337376181258</v>
+        <v>11.2341964777969</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1215057803308709</v>
+        <v>0.1282289924108492</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0831225514003503</v>
+        <v>0.08484774325246182</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.008167666936920051</v>
+        <v>-0.01581926407317634</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2140365476835221</v>
+        <v>0.1993905880324238</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.98616045839453</v>
+        <v>19.38612739476813</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.20800723229368</v>
+        <v>17.7082554740286</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.85369077818939</v>
+        <v>10.47988455227281</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32.23024234561036</v>
+        <v>31.44100756119985</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3866206118360402</v>
+        <v>0.3795813640011386</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2737276187327061</v>
+        <v>0.2824426830966553</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1609716328153168</v>
+        <v>0.1496652639942436</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.7657417594883059</v>
+        <v>0.716843671469083</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>11.19501267386729</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11.8354525368608</v>
+        <v>11.83545253686078</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4420974214061663</v>
@@ -749,7 +749,7 @@
         <v>0.1703373852873875</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2081776802794063</v>
+        <v>0.2081776802794059</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.58657520027641</v>
+        <v>17.29604607282541</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.714503558903541</v>
+        <v>6.666192568307104</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.750794123614272</v>
+        <v>5.731475508502416</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.239601621460516</v>
+        <v>4.845954263485485</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3169559028947356</v>
+        <v>0.3294084466294642</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09858640680895238</v>
+        <v>0.0974818462252262</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08493369756760207</v>
+        <v>0.08507428864831919</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.06697811183986382</v>
+        <v>0.08162103825253152</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>27.34052349923959</v>
+        <v>27.50109591402427</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.98764903112184</v>
+        <v>16.91790067348515</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.30153951148424</v>
+        <v>16.38211492838572</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18.47473329549786</v>
+        <v>19.34662213967233</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5939584728125632</v>
+        <v>0.5888872366338118</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2702741155557538</v>
+        <v>0.2718389016496096</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2601955185029953</v>
+        <v>0.2666896420008123</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3472800599348431</v>
+        <v>0.376582845963894</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>5.183505594709037</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10.29761153826732</v>
+        <v>10.2976115382673</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2107259917909423</v>
@@ -849,7 +849,7 @@
         <v>0.07612260657040165</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1704916773576981</v>
+        <v>0.1704916773576979</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.069145768064463</v>
+        <v>6.835082941506844</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.749688973919705</v>
+        <v>8.040113350338505</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2709728700875603</v>
+        <v>0.08577333287759316</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.957289270315572</v>
+        <v>5.216454616614192</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1012454896488534</v>
+        <v>0.1153527881979683</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1167197507641611</v>
+        <v>0.119111001437185</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.004055841909597775</v>
+        <v>0.001137340749386435</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.07741197207796892</v>
+        <v>0.0813283456806622</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.95071644206864</v>
+        <v>17.27303103980996</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.70115922410068</v>
+        <v>17.81959612879501</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.3269317311896</v>
+        <v>10.21243445164953</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.07056349881002</v>
+        <v>15.73626117018592</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3145406644445586</v>
+        <v>0.3229822986522379</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2905405600294957</v>
+        <v>0.2903766338717532</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1591710762506263</v>
+        <v>0.1559623238801035</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2619331482761361</v>
+        <v>0.2758614104230528</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.284291854011236</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.151685615238933</v>
+        <v>6.151685615238945</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2646700573076253</v>
@@ -949,7 +949,7 @@
         <v>0.08610702513959262</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.0907017362405145</v>
+        <v>0.09070173624051468</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>10.03818836250855</v>
+        <v>10.34405160741419</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.850129440721091</v>
+        <v>7.257755408703128</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.365665905257279</v>
+        <v>1.551956701763384</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.776396322741463</v>
+        <v>2.169424122496156</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1565546549534134</v>
+        <v>0.1619604310171288</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09632837970949398</v>
+        <v>0.1045246156302756</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01771925187291939</v>
+        <v>0.01970509769338869</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.02518307111973378</v>
+        <v>0.03127217408915613</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.58495633154115</v>
+        <v>22.36026676411171</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>18.39699369632062</v>
+        <v>17.81596850418207</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.57986235618984</v>
+        <v>11.10561716075965</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.76850583471637</v>
+        <v>10.74305015395506</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.388478797530201</v>
+        <v>0.3936263748008096</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2886454272802946</v>
+        <v>0.2832457439108435</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1638204956750938</v>
+        <v>0.158001769886662</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1665721680834995</v>
+        <v>0.1686970787602421</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>9.729197743003294</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.68972314495748</v>
+        <v>3.689723144957446</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06021736896366603</v>
@@ -1049,7 +1049,7 @@
         <v>0.1264228830786036</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.04775563278861844</v>
+        <v>0.047755632788618</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.091047032462799</v>
+        <v>-1.126404983354089</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.90088389299888</v>
+        <v>8.01924922722446</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.964342614423837</v>
+        <v>4.749565709039379</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3952550637879716</v>
+        <v>-0.3724542727554972</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.0135876032516819</v>
+        <v>-0.01437133218751927</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09709265141644317</v>
+        <v>0.1008934343230313</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06196586635783816</v>
+        <v>0.05969191186920943</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.004759252794519915</v>
+        <v>-0.004727403570150766</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.25338615721689</v>
+        <v>10.53534098846464</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.10005477055145</v>
+        <v>18.60922518670591</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.82887857380003</v>
+        <v>15.4954794466044</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.859859186142705</v>
+        <v>7.679806559456804</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1408352270051741</v>
+        <v>0.1434102033163794</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2448160843905242</v>
+        <v>0.2571671733184291</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2173581393022574</v>
+        <v>0.2119609414969285</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1055233526207164</v>
+        <v>0.102489944714181</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>2.265211406546042</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7.997723054777317</v>
+        <v>7.997723054777328</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06054787079928935</v>
@@ -1149,7 +1149,7 @@
         <v>0.02600604184825009</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1013323821132695</v>
+        <v>0.1013323821132696</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.5448388418306892</v>
+        <v>0.1088437308740783</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.643687792133958</v>
+        <v>-2.313721580449843</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.339911889266793</v>
+        <v>-2.80693935751414</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.929104766618528</v>
+        <v>4.152090564748399</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.005124628631377171</v>
+        <v>0.001265680843684745</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.02799437792164166</v>
+        <v>-0.02485567303943281</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.02612076882297757</v>
+        <v>-0.03109718976079598</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.04809994578508547</v>
+        <v>0.05024460788392613</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.23183735665383</v>
+        <v>10.42424273430916</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.484783166953596</v>
+        <v>7.335831932400586</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.006283958537103</v>
+        <v>7.108435584891475</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11.9753846281932</v>
+        <v>12.00237294407871</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1292705532567822</v>
+        <v>0.1277197586799766</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08782934965437386</v>
+        <v>0.08679160517115869</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08383547157559289</v>
+        <v>0.08476336842626547</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1576856487569383</v>
+        <v>0.1580331712744235</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>1.485001199514091</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-1.020568254334075</v>
+        <v>-1.020568254334064</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05284980929145209</v>
@@ -1249,7 +1249,7 @@
         <v>0.0161687313904379</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.01155836037764422</v>
+        <v>-0.01155836037764409</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.02660244215150314</v>
+        <v>0.131234570044118</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.681528697428201</v>
+        <v>-5.205899020666524</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.913203793723176</v>
+        <v>-2.567184412830098</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.093557473816562</v>
+        <v>-5.000589032683754</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.0005813580746171065</v>
+        <v>0.00193079022748561</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.05964388529098606</v>
+        <v>-0.05427197752539299</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.03158617748856048</v>
+        <v>-0.02763800950741969</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.05561631232978197</v>
+        <v>-0.05513946155290315</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.00869657802944</v>
+        <v>9.506715690198375</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.250044217838361</v>
+        <v>2.98931542476509</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.789962817176023</v>
+        <v>5.462714186816385</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.671861835954972</v>
+        <v>2.767580719461924</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1153448903919689</v>
+        <v>0.1106099274944279</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03629981237512582</v>
+        <v>0.03397154706097301</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06474886495219913</v>
+        <v>0.06102006662649225</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.03177672759014369</v>
+        <v>0.03175326647633969</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1349,7 @@
         <v>0.09688791319488319</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1348512049711981</v>
+        <v>0.134851204971198</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>11.83185351922296</v>
+        <v>12.00893050588915</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>9.128715173634266</v>
+        <v>9.1500090701437</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5.235228871918793</v>
+        <v>5.144152546042491</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7.003816727077854</v>
+        <v>6.811479911200055</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1840231646598586</v>
+        <v>0.189457526497872</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1278236244308829</v>
+        <v>0.1262667302136971</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06948440584366927</v>
+        <v>0.06901172585850347</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1013300605933503</v>
+        <v>0.09841099909519256</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>16.3438199574887</v>
+        <v>16.43145729862468</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>13.21439891808032</v>
+        <v>13.26204738713538</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9.11110713990681</v>
+        <v>9.117826219308219</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>11.32596413486395</v>
+        <v>11.34508364740419</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2674290957304122</v>
+        <v>0.2684266740968472</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.189800381080309</v>
+        <v>0.1896003691713641</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1248572856751047</v>
+        <v>0.1253012082656544</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1725067350674477</v>
+        <v>0.1716193375389144</v>
       </c>
     </row>
     <row r="28">
